--- a/tut05/output/0401ME21.xlsx
+++ b/tut05/output/0401ME21.xlsx
@@ -553,19 +553,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5.545454545454546</v>
+        <v>5.55</v>
       </c>
       <c r="D6" t="n">
-        <v>6.48936170212766</v>
+        <v>6.49</v>
       </c>
       <c r="E6" t="n">
-        <v>6.836734693877551</v>
+        <v>6.84</v>
       </c>
       <c r="F6" t="n">
-        <v>6.217391304347826</v>
+        <v>6.22</v>
       </c>
       <c r="G6" t="n">
-        <v>6.347826086956522</v>
+        <v>6.35</v>
       </c>
       <c r="H6" t="n">
         <v>7.25</v>
@@ -615,25 +615,25 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>5.78494623655914</v>
+        <v>5.78</v>
       </c>
       <c r="D8" t="n">
-        <v>6.021428571428571</v>
+        <v>6.02</v>
       </c>
       <c r="E8" t="n">
-        <v>6.232804232804233</v>
+        <v>6.23</v>
       </c>
       <c r="F8" t="n">
-        <v>6.229787234042553</v>
+        <v>6.23</v>
       </c>
       <c r="G8" t="n">
-        <v>6.249110320284697</v>
+        <v>6.25</v>
       </c>
       <c r="H8" t="n">
-        <v>6.373831775700935</v>
+        <v>6.37</v>
       </c>
       <c r="I8" t="n">
-        <v>6.409972299168975</v>
+        <v>6.41</v>
       </c>
     </row>
   </sheetData>
